--- a/data/trans_camb/P1424_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1424_2016_2023-Estudios-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.168071111782689</v>
+        <v>1.920347880495509</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08667185093425972</v>
+        <v>-0.02864833890443519</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.605522727660934</v>
+        <v>1.46004078472779</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.710264150022911</v>
+        <v>6.428518050340042</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.388990497845341</v>
+        <v>5.504227952207238</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.452046350041321</v>
+        <v>5.25653401213858</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6003668288304683</v>
+        <v>0.532705015182618</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.004659612032341993</v>
+        <v>-0.002243196514295396</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2007030091443798</v>
+        <v>0.1759840673062141</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.182361226615074</v>
+        <v>3.84119200170147</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.591961902063679</v>
+        <v>0.6355758800912054</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.9016653822631444</v>
+        <v>0.8573426576741408</v>
       </c>
     </row>
     <row r="10">
@@ -673,10 +673,10 @@
         <v>1.803327782240213</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>2.716325939313013</v>
+        <v>2.716325939313012</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2.269221178546808</v>
+        <v>2.26922117854681</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8541060396083491</v>
+        <v>0.8305623714070299</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.170813552788262</v>
+        <v>1.075355037848788</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.324547336508229</v>
+        <v>1.294150870718603</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.885020875974347</v>
+        <v>2.957755643926132</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.130617330667772</v>
+        <v>4.154706898365622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.15595686623046</v>
+        <v>3.19237480369479</v>
       </c>
     </row>
     <row r="13">
@@ -724,10 +724,10 @@
         <v>0.964351717406823</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.4587702394801325</v>
+        <v>0.4587702394801323</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5891717507993147</v>
+        <v>0.5891717507993151</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.358761545225059</v>
+        <v>0.3561333576120979</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1731276613775095</v>
+        <v>0.1581392272306218</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3157296205661115</v>
+        <v>0.2928342031770463</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.088950355279298</v>
+        <v>1.986702600385311</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7971137143540957</v>
+        <v>0.8096248685603226</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9216532183192847</v>
+        <v>0.9277784568848684</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>3.012606580612534</v>
+        <v>3.012606580612535</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>4.729162250194293</v>
+        <v>4.729162250194294</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>3.887250630436167</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.043272003935725</v>
+        <v>1.034196791806941</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.932159349241108</v>
+        <v>3.016909156422257</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.48490183897206</v>
+        <v>2.475334205722957</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.358745288579024</v>
+        <v>5.422288492977363</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.817097162525693</v>
+        <v>6.673035979599542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.396054816085148</v>
+        <v>5.448414272329267</v>
       </c>
     </row>
     <row r="19">
@@ -830,7 +830,7 @@
         <v>2.026884052130898</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3.033229754068793</v>
+        <v>3.033229754068794</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>2.552706504249061</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2512412308704372</v>
+        <v>0.2781013267538474</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>1.065061758908852</v>
+        <v>1.133599826558246</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.938726658212148</v>
+        <v>1.088656232614415</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>7.331210703437597</v>
+        <v>7.132679756617882</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>8.19319017670095</v>
+        <v>7.329777594822494</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>5.104415564304162</v>
+        <v>5.563799031634508</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>2.383742771165588</v>
+        <v>2.383742771165587</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>2.620970473537944</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.520691504376547</v>
+        <v>2.520691504376549</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.569407264048785</v>
+        <v>1.501077144847638</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.378982652797216</v>
+        <v>1.400916899253905</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.815287314491922</v>
+        <v>1.78622420302664</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.22403088725297</v>
+        <v>3.174205882096712</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.858572674566618</v>
+        <v>3.72741560826645</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.313373072189091</v>
+        <v>3.182139356293536</v>
       </c>
     </row>
     <row r="25">
@@ -939,7 +939,7 @@
         <v>0.4001943398961776</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5884166028191811</v>
+        <v>0.5884166028191814</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6714692167935403</v>
+        <v>0.6720498645358256</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1899556443710833</v>
+        <v>0.1837888379440131</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.384357679627869</v>
+        <v>0.3766716824058039</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.052135140370202</v>
+        <v>2.034065444669117</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6498265646830151</v>
+        <v>0.6223726713178599</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8504759559720269</v>
+        <v>0.8028966194628588</v>
       </c>
     </row>
     <row r="28">
